--- a/HydroToolkit/data/Stationen_ids.xlsx
+++ b/HydroToolkit/data/Stationen_ids.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WASSERRESSOURCEN - GQH Stufe 1 2024 - 2400613\C GRUNDLAGEN\01-Daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WASSERRESSOURCEN - GQH Stufe 1 2024 - 2400613\D BEARBEITUNG\02-Berechnungen\HydroToolkit\HydroToolkit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417FD7F8-FECE-4464-8CAA-48F50BC70856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6F6145-EEAC-4E0D-B958-542A94BB448B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13305" xr2:uid="{F14D9F9D-ECE0-4BB2-B791-FA12EBD97569}"/>
   </bookViews>
@@ -192,9 +192,6 @@
     <t>QU70630001</t>
   </si>
   <si>
-    <t>KK71210052 </t>
-  </si>
-  <si>
     <t>Zams</t>
   </si>
   <si>
@@ -1118,6 +1115,9 @@
   </si>
   <si>
     <t>gzuev_id</t>
+  </si>
+  <si>
+    <t>KK71210052</t>
   </si>
 </sst>
 </file>
@@ -1499,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC8BBCE-44C5-43F0-BE87-582F4B407380}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,22 +1515,22 @@
         <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>48</v>
@@ -1538,10 +1538,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1550,15 +1550,15 @@
         <v>396234</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
         <v>179</v>
-      </c>
-      <c r="B3" t="s">
-        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1567,44 +1567,44 @@
         <v>395400</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
         <v>182</v>
-      </c>
-      <c r="B4" t="s">
-        <v>183</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" t="s">
         <v>184</v>
-      </c>
-      <c r="H4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" t="s">
         <v>344</v>
-      </c>
-      <c r="B5" t="s">
-        <v>345</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" t="s">
         <v>346</v>
       </c>
-      <c r="G5" t="s">
-        <v>347</v>
-      </c>
       <c r="H5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1615,21 +1615,21 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>362</v>
       </c>
       <c r="D6">
         <v>396192</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" t="s">
         <v>318</v>
-      </c>
-      <c r="B7" t="s">
-        <v>319</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -1638,15 +1638,15 @@
         <v>396424</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" t="s">
         <v>270</v>
-      </c>
-      <c r="B8" t="s">
-        <v>271</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -1655,15 +1655,15 @@
         <v>395368</v>
       </c>
       <c r="H8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" t="s">
         <v>323</v>
-      </c>
-      <c r="B9" t="s">
-        <v>324</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -1672,52 +1672,52 @@
         <v>395509</v>
       </c>
       <c r="G9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H9" t="s">
         <v>325</v>
-      </c>
-      <c r="H9" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
         <v>141</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="G10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" t="s">
         <v>143</v>
-      </c>
-      <c r="H10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" t="s">
         <v>335</v>
-      </c>
-      <c r="B11" t="s">
-        <v>336</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
         <v>201</v>
-      </c>
-      <c r="B12" t="s">
-        <v>202</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1726,18 +1726,18 @@
         <v>396275</v>
       </c>
       <c r="G12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" t="s">
         <v>203</v>
-      </c>
-      <c r="H12" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
         <v>68</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -1746,15 +1746,15 @@
         <v>395459</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
         <v>150</v>
-      </c>
-      <c r="B14" t="s">
-        <v>151</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1763,18 +1763,18 @@
         <v>395418</v>
       </c>
       <c r="G14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" t="s">
         <v>152</v>
-      </c>
-      <c r="H14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" t="s">
         <v>283</v>
-      </c>
-      <c r="B15" t="s">
-        <v>284</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1783,15 +1783,15 @@
         <v>395327</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" t="s">
         <v>312</v>
-      </c>
-      <c r="B16" t="s">
-        <v>313</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1800,60 +1800,60 @@
         <v>396226</v>
       </c>
       <c r="H16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
         <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
         <v>56</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
         <v>190</v>
-      </c>
-      <c r="B19" t="s">
-        <v>191</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B20" t="s">
         <v>299</v>
-      </c>
-      <c r="B20" t="s">
-        <v>300</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -1862,29 +1862,29 @@
         <v>396895</v>
       </c>
       <c r="H20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
         <v>219</v>
-      </c>
-      <c r="B21" t="s">
-        <v>220</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" t="s">
         <v>304</v>
-      </c>
-      <c r="B22" t="s">
-        <v>305</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -1893,32 +1893,32 @@
         <v>395350</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" t="s">
         <v>276</v>
-      </c>
-      <c r="B23" t="s">
-        <v>277</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" t="s">
         <v>235</v>
-      </c>
-      <c r="B24" t="s">
-        <v>236</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -1927,94 +1927,94 @@
         <v>395442</v>
       </c>
       <c r="H24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" t="s">
         <v>252</v>
-      </c>
-      <c r="B25" t="s">
-        <v>253</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" t="s">
         <v>222</v>
-      </c>
-      <c r="B26" t="s">
-        <v>223</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="G26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" t="s">
         <v>224</v>
-      </c>
-      <c r="H26" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B27" t="s">
         <v>279</v>
-      </c>
-      <c r="B27" t="s">
-        <v>280</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
       </c>
       <c r="E27" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" t="s">
         <v>281</v>
       </c>
-      <c r="G27" t="s">
-        <v>282</v>
-      </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
         <v>130</v>
-      </c>
-      <c r="B28" t="s">
-        <v>131</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
         <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>75</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" t="s">
         <v>205</v>
-      </c>
-      <c r="B30" t="s">
-        <v>206</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -2023,18 +2023,18 @@
         <v>395376</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
         <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
@@ -2043,32 +2043,32 @@
         <v>395434</v>
       </c>
       <c r="H31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" t="s">
         <v>137</v>
-      </c>
-      <c r="B32" t="s">
-        <v>138</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
       </c>
       <c r="E32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" t="s">
         <v>139</v>
-      </c>
-      <c r="H32" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" t="s">
         <v>245</v>
-      </c>
-      <c r="B33" t="s">
-        <v>246</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -2077,15 +2077,15 @@
         <v>396317</v>
       </c>
       <c r="H33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" t="s">
         <v>267</v>
-      </c>
-      <c r="B34" t="s">
-        <v>268</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -2094,15 +2094,15 @@
         <v>395343</v>
       </c>
       <c r="H34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" t="s">
         <v>175</v>
-      </c>
-      <c r="B35" t="s">
-        <v>176</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -2111,38 +2111,38 @@
         <v>396382</v>
       </c>
       <c r="G35" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" t="s">
         <v>177</v>
-      </c>
-      <c r="H35" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B36" t="s">
         <v>330</v>
-      </c>
-      <c r="B36" t="s">
-        <v>331</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="F36" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" t="s">
         <v>332</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>333</v>
-      </c>
-      <c r="H36" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" t="s">
         <v>231</v>
-      </c>
-      <c r="B37" t="s">
-        <v>232</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -2151,10 +2151,10 @@
         <v>395491</v>
       </c>
       <c r="G37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H37" t="s">
         <v>233</v>
-      </c>
-      <c r="H37" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2173,30 +2173,30 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" t="s">
         <v>226</v>
-      </c>
-      <c r="B39" t="s">
-        <v>227</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="E39" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" t="s">
         <v>228</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>229</v>
-      </c>
-      <c r="H39" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
         <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -2205,15 +2205,15 @@
         <v>396291</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B41" t="s">
         <v>287</v>
-      </c>
-      <c r="B41" t="s">
-        <v>288</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
@@ -2222,29 +2222,29 @@
         <v>395533</v>
       </c>
       <c r="H41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" t="s">
         <v>262</v>
-      </c>
-      <c r="B42" t="s">
-        <v>263</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
         <v>71</v>
-      </c>
-      <c r="B43" t="s">
-        <v>72</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -2253,15 +2253,15 @@
         <v>395335</v>
       </c>
       <c r="H43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
         <v>106</v>
-      </c>
-      <c r="B44" t="s">
-        <v>107</v>
       </c>
       <c r="C44" t="e">
         <f>VLOOKUP(B44,[1]ListeGesamt!$A$2:$H$96,2,TRUE)</f>
@@ -2271,83 +2271,83 @@
         <v>396259</v>
       </c>
       <c r="H44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" t="s">
         <v>237</v>
-      </c>
-      <c r="B45" t="s">
-        <v>238</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" t="s">
         <v>239</v>
-      </c>
-      <c r="H45" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s">
         <v>156</v>
-      </c>
-      <c r="B46" t="s">
-        <v>157</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="G46" t="s">
+        <v>157</v>
+      </c>
+      <c r="H46" t="s">
         <v>158</v>
-      </c>
-      <c r="H46" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" t="s">
         <v>160</v>
-      </c>
-      <c r="B47" t="s">
-        <v>161</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="E47" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" t="s">
         <v>162</v>
       </c>
-      <c r="G47" t="s">
-        <v>163</v>
-      </c>
       <c r="H47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
         <v>59</v>
-      </c>
-      <c r="B48" t="s">
-        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" t="s">
         <v>164</v>
-      </c>
-      <c r="B49" t="s">
-        <v>165</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
@@ -2356,21 +2356,21 @@
         <v>395517</v>
       </c>
       <c r="E49" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" t="s">
         <v>166</v>
       </c>
-      <c r="G49" t="s">
-        <v>167</v>
-      </c>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50" t="s">
         <v>273</v>
-      </c>
-      <c r="B50" t="s">
-        <v>274</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -2379,15 +2379,15 @@
         <v>395426</v>
       </c>
       <c r="H50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" t="s">
         <v>197</v>
-      </c>
-      <c r="B51" t="s">
-        <v>198</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -2396,646 +2396,646 @@
         <v>395483</v>
       </c>
       <c r="G51" t="s">
+        <v>198</v>
+      </c>
+      <c r="H51" t="s">
         <v>199</v>
-      </c>
-      <c r="H51" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
         <v>62</v>
       </c>
-      <c r="B52" t="s">
+      <c r="H52" t="s">
         <v>63</v>
-      </c>
-      <c r="H52" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
         <v>86</v>
       </c>
-      <c r="B53" t="s">
-        <v>87</v>
-      </c>
       <c r="H53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
         <v>88</v>
       </c>
-      <c r="B54" t="s">
+      <c r="H54" t="s">
         <v>89</v>
-      </c>
-      <c r="H54" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" t="s">
         <v>91</v>
       </c>
-      <c r="B55" t="s">
-        <v>92</v>
-      </c>
       <c r="H55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
         <v>93</v>
       </c>
-      <c r="B56" t="s">
+      <c r="E56" t="s">
         <v>94</v>
       </c>
-      <c r="E56" t="s">
-        <v>95</v>
-      </c>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" t="s">
         <v>96</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>97</v>
-      </c>
-      <c r="H57" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" t="s">
         <v>99</v>
       </c>
-      <c r="B58" t="s">
+      <c r="F58" t="s">
         <v>100</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>101</v>
-      </c>
-      <c r="H58" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
         <v>103</v>
       </c>
-      <c r="B59" t="s">
+      <c r="H59" t="s">
         <v>104</v>
-      </c>
-      <c r="H59" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
         <v>109</v>
       </c>
-      <c r="B60" t="s">
+      <c r="H60" t="s">
         <v>110</v>
-      </c>
-      <c r="H60" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" t="s">
         <v>112</v>
       </c>
-      <c r="B61" t="s">
+      <c r="G61" t="s">
         <v>113</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>114</v>
-      </c>
-      <c r="H61" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" t="s">
         <v>116</v>
       </c>
-      <c r="B62" t="s">
-        <v>89</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>117</v>
-      </c>
-      <c r="H62" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
         <v>119</v>
       </c>
-      <c r="B63" t="s">
+      <c r="H63" t="s">
         <v>120</v>
-      </c>
-      <c r="H63" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" t="s">
         <v>122</v>
       </c>
-      <c r="B64" t="s">
-        <v>89</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>123</v>
-      </c>
-      <c r="H64" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
         <v>125</v>
       </c>
-      <c r="B65" t="s">
+      <c r="H65" t="s">
         <v>126</v>
-      </c>
-      <c r="H65" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+      <c r="H66" t="s">
         <v>128</v>
-      </c>
-      <c r="B66" t="s">
-        <v>89</v>
-      </c>
-      <c r="H66" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
         <v>133</v>
       </c>
-      <c r="B67" t="s">
+      <c r="G67" t="s">
         <v>134</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>135</v>
-      </c>
-      <c r="H67" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" t="s">
         <v>145</v>
-      </c>
-      <c r="B68" t="s">
-        <v>146</v>
       </c>
       <c r="D68">
         <v>396366</v>
       </c>
       <c r="H68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s">
         <v>147</v>
       </c>
-      <c r="B69" t="s">
+      <c r="G69" t="s">
         <v>148</v>
       </c>
-      <c r="G69" t="s">
-        <v>149</v>
-      </c>
       <c r="H69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s">
         <v>154</v>
       </c>
-      <c r="B70" t="s">
-        <v>155</v>
-      </c>
       <c r="H70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" t="s">
         <v>168</v>
       </c>
-      <c r="B71" t="s">
+      <c r="G71" t="s">
         <v>169</v>
       </c>
-      <c r="G71" t="s">
-        <v>170</v>
-      </c>
       <c r="H71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" t="s">
         <v>171</v>
       </c>
-      <c r="B72" t="s">
+      <c r="G72" t="s">
         <v>172</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>173</v>
-      </c>
-      <c r="H72" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73" t="s">
         <v>186</v>
       </c>
-      <c r="B73" t="s">
+      <c r="E73" t="s">
         <v>187</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>188</v>
       </c>
-      <c r="G73" t="s">
-        <v>189</v>
-      </c>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" t="s">
         <v>193</v>
       </c>
-      <c r="B74" t="s">
+      <c r="G74" t="s">
         <v>194</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>195</v>
-      </c>
-      <c r="H74" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" t="s">
         <v>209</v>
       </c>
-      <c r="B76" t="s">
+      <c r="G76" t="s">
+        <v>206</v>
+      </c>
+      <c r="H76" t="s">
         <v>210</v>
-      </c>
-      <c r="G76" t="s">
-        <v>207</v>
-      </c>
-      <c r="H76" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" t="s">
         <v>212</v>
       </c>
-      <c r="B77" t="s">
+      <c r="H77" t="s">
         <v>213</v>
-      </c>
-      <c r="H77" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" t="s">
         <v>215</v>
       </c>
-      <c r="B78" t="s">
+      <c r="G78" t="s">
         <v>216</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>217</v>
-      </c>
-      <c r="H78" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" t="s">
         <v>241</v>
       </c>
-      <c r="B79" t="s">
-        <v>242</v>
-      </c>
       <c r="H79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="H80" t="s">
         <v>243</v>
-      </c>
-      <c r="B80" t="s">
-        <v>89</v>
-      </c>
-      <c r="H80" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B81" t="s">
         <v>248</v>
       </c>
-      <c r="B81" t="s">
+      <c r="H81" t="s">
         <v>249</v>
-      </c>
-      <c r="H81" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" t="s">
         <v>255</v>
-      </c>
-      <c r="B83" t="s">
-        <v>256</v>
       </c>
       <c r="D83">
         <v>396481</v>
       </c>
       <c r="H83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" t="s">
         <v>258</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
         <v>259</v>
       </c>
-      <c r="E84" t="s">
+      <c r="H84" t="s">
         <v>260</v>
-      </c>
-      <c r="H84" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" t="s">
         <v>264</v>
       </c>
-      <c r="B85" t="s">
+      <c r="H85" t="s">
         <v>265</v>
-      </c>
-      <c r="H85" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B86" t="s">
         <v>285</v>
       </c>
-      <c r="B86" t="s">
-        <v>286</v>
-      </c>
       <c r="H86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B88" t="s">
         <v>290</v>
       </c>
-      <c r="B88" t="s">
-        <v>291</v>
-      </c>
       <c r="H88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B89" t="s">
         <v>292</v>
       </c>
-      <c r="B89" t="s">
+      <c r="H89" t="s">
         <v>293</v>
-      </c>
-      <c r="H89" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B90" t="s">
         <v>295</v>
       </c>
-      <c r="B90" t="s">
-        <v>296</v>
-      </c>
       <c r="H90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B91" t="s">
         <v>297</v>
       </c>
-      <c r="B91" t="s">
-        <v>298</v>
-      </c>
       <c r="H91" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B92" t="s">
         <v>301</v>
       </c>
-      <c r="B92" t="s">
+      <c r="E92" t="s">
         <v>302</v>
       </c>
-      <c r="E92" t="s">
-        <v>303</v>
-      </c>
       <c r="H92" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B93" t="s">
         <v>306</v>
       </c>
-      <c r="B93" t="s">
+      <c r="G93" t="s">
         <v>307</v>
       </c>
-      <c r="G93" t="s">
-        <v>308</v>
-      </c>
       <c r="H93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B94" t="s">
         <v>309</v>
       </c>
-      <c r="B94" t="s">
+      <c r="H94" t="s">
         <v>310</v>
-      </c>
-      <c r="H94" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B95" t="s">
         <v>315</v>
       </c>
-      <c r="B95" t="s">
+      <c r="E95" t="s">
         <v>316</v>
       </c>
-      <c r="E95" t="s">
-        <v>317</v>
-      </c>
       <c r="H95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B96" t="s">
         <v>320</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>321</v>
       </c>
-      <c r="D96" t="s">
-        <v>322</v>
-      </c>
       <c r="H96" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B97" t="s">
         <v>327</v>
       </c>
-      <c r="B97" t="s">
+      <c r="G97" t="s">
         <v>328</v>
       </c>
-      <c r="G97" t="s">
-        <v>329</v>
-      </c>
       <c r="H97" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B98" t="s">
         <v>338</v>
       </c>
-      <c r="B98" t="s">
+      <c r="G98" t="s">
         <v>339</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>340</v>
-      </c>
-      <c r="H98" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B99" t="s">
         <v>342</v>
       </c>
-      <c r="B99" t="s">
-        <v>343</v>
-      </c>
       <c r="H99" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" t="s">
         <v>348</v>
       </c>
-      <c r="B100" t="s">
-        <v>349</v>
-      </c>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B101" t="s">
         <v>350</v>
       </c>
-      <c r="B101" t="s">
+      <c r="G101" t="s">
         <v>351</v>
       </c>
-      <c r="G101" t="s">
-        <v>352</v>
-      </c>
       <c r="H101" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B102" t="s">
         <v>353</v>
       </c>
-      <c r="B102" t="s">
+      <c r="F102" t="s">
         <v>354</v>
       </c>
-      <c r="F102" t="s">
+      <c r="H102" t="s">
         <v>355</v>
-      </c>
-      <c r="H102" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
